--- a/data/trans_camb/P19C01-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P19C01-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P19C01-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P19C01-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,9</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,06</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,91</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,47</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,85</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,02</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,38</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,51</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,06; -1,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,02; 8,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,09; 18,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,09; 4,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,93; 15,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,65; 22,67</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,58; 1,12</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,95; 11,72</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,5; 19,67</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,27%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,41%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,36%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,03%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>51,15%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>84,1%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,84%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,74%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>72,42%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,4; -8,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,02; 42,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>30,23; 88,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,91; 21,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,7; 79,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>60,53; 113,32</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,97; 4,83</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,08; 55,44</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>55,8; 93,23</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,85</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,96</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>27,94</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,14</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>24,52</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,49</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>26,2</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,04; 4,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,57; 15,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,64; 31,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,07; 4,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,56; 12,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,0; 28,74</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,93; 4,02</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,9; 12,86</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,74; 29,28</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,25%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,47%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>94,52%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,93%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,84%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>69,38%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,54%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,27%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>80,58%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,46; 17,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,78; 55,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>74,75; 113,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,59; 14,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,75; 37,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>38,24; 84,21</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,81; 12,62</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,47; 41,44</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>63,37; 93,28</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,7</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,13</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>28,38</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,4</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,8</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>28,25</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,9</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,44</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>28,26</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,83; 8,92</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,41; 17,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,97; 34,41</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,97; 22,61</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,26; 19,95</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,97; 34,03</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,21; 14,08</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,65; 15,93</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,93; 32,47</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,68%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,06%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>70,19%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,33%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,69%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>72,15%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,34%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,73%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>70,96%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,92; 24,07</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,35; 45,26</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>49,3; 95,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,68; 62,72</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,68; 57,2</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>50,87; 97,48</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,28; 37,94</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,88; 42,75</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>55,96; 87,57</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,97</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>26,66</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,85</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,05</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>25,9</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,52</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>26,26</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,96; 2,22</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,36; 13,85</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,7; 29,52</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,49; 5,34</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,39; 14,55</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,4; 29,03</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,45; 3,08</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,55; 13,37</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,91; 28,48</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,23%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,81%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>89,41%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,08%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,39%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>82,53%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,21%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,59%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>85,71%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,53; 7,56</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,76; 48,62</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>73,4; 104,52</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,48; 17,81</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>28,91; 48,41</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>64,15; 95,71</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,4; 10,44</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>30,05; 44,83</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>74,08; 96,34</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P19C01-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P19C01-Estudios-trans_camb.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>12,91</t>
+          <t>14,02</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>18,85</t>
+          <t>18,64</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>16,51</t>
+          <t>16,77</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,09; 18,96</t>
+          <t>9,15; 20,33</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,65; 22,67</t>
+          <t>14,49; 22,41</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>13,5; 19,67</t>
+          <t>13,78; 19,95</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>55,36%</t>
+          <t>60,11%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>84,1%</t>
+          <t>83,15%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>72,42%</t>
+          <t>73,56%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>30,23; 88,75</t>
+          <t>34,81; 94,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>60,53; 113,32</t>
+          <t>60,49; 112,38</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>55,8; 93,23</t>
+          <t>57,2; 94,39</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>27,94</t>
+          <t>22,91</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>24,52</t>
+          <t>21,94</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>26,2</t>
+          <t>22,34</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>22,64; 31,32</t>
+          <t>5,29; 30,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,0; 28,74</t>
+          <t>4,07; 28,94</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>20,74; 29,28</t>
+          <t>11,47; 28,53</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>94,52%</t>
+          <t>77,5%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>69,38%</t>
+          <t>62,06%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>80,58%</t>
+          <t>68,72%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>74,75; 113,33</t>
+          <t>17,66; 104,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>38,24; 84,21</t>
+          <t>11,93; 83,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>63,37; 93,28</t>
+          <t>35,45; 89,07</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>28,38</t>
+          <t>28,37</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>28,25</t>
+          <t>28,33</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>28,26</t>
+          <t>28,31</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>21,97; 34,41</t>
+          <t>21,75; 34,57</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>21,97; 34,03</t>
+          <t>22,04; 34,06</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>23,93; 32,47</t>
+          <t>23,88; 32,45</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>70,19%</t>
+          <t>70,16%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>72,15%</t>
+          <t>72,35%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>70,96%</t>
+          <t>71,08%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>49,3; 95,0</t>
+          <t>49,47; 95,64</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>50,87; 97,48</t>
+          <t>51,18; 97,7</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>55,96; 87,57</t>
+          <t>55,95; 87,72</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>26,66</t>
+          <t>23,55</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>25,9</t>
+          <t>24,48</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>26,26</t>
+          <t>24,01</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>22,7; 29,52</t>
+          <t>11,58; 28,84</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>20,4; 29,03</t>
+          <t>13,39; 29,28</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>22,91; 28,48</t>
+          <t>15,19; 28,32</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>89,41%</t>
+          <t>78,99%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>82,53%</t>
+          <t>77,98%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>85,71%</t>
+          <t>78,35%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>73,4; 104,52</t>
+          <t>41,52; 100,1</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>64,15; 95,71</t>
+          <t>42,45; 95,6</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>74,08; 96,34</t>
+          <t>52,04; 93,92</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P19C01-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P19C01-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,06; -1,78</t>
+          <t>-10,31; -1,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 8,76</t>
+          <t>-0,87; 9,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,15; 20,33</t>
+          <t>8,76; 19,35</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 4,36</t>
+          <t>-3,26; 4,39</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,93; 15,93</t>
+          <t>6,83; 16,26</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,49; 22,41</t>
+          <t>14,91; 22,5</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 1,12</t>
+          <t>-4,71; 0,83</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,95; 11,72</t>
+          <t>4,99; 11,99</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>13,78; 19,95</t>
+          <t>13,68; 19,95</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-39,4; -8,51</t>
+          <t>-40,04; -6,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 42,38</t>
+          <t>-3,52; 45,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>34,81; 94,84</t>
+          <t>34,52; 93,9</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-11,91; 21,88</t>
+          <t>-12,97; 21,8</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>29,7; 79,02</t>
+          <t>27,71; 77,24</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>60,49; 112,38</t>
+          <t>59,3; 109,9</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-18,97; 4,83</t>
+          <t>-19,43; 3,59</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>20,08; 55,44</t>
+          <t>20,88; 56,24</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>57,2; 94,39</t>
+          <t>55,91; 93,33</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 4,9</t>
+          <t>-1,81; 5,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,57; 15,32</t>
+          <t>8,78; 15,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,29; 30,34</t>
+          <t>7,38; 30,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 4,85</t>
+          <t>-2,42; 5,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,56; 12,53</t>
+          <t>5,58; 12,58</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,07; 28,94</t>
+          <t>7,34; 29,57</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 4,02</t>
+          <t>-0,79; 4,2</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,9; 12,86</t>
+          <t>8,05; 12,86</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>11,47; 28,53</t>
+          <t>12,51; 29,12</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,46; 17,68</t>
+          <t>-5,57; 18,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>26,78; 55,89</t>
+          <t>28,05; 56,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,66; 104,31</t>
+          <t>26,15; 106,52</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 14,3</t>
+          <t>-6,34; 15,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14,75; 37,44</t>
+          <t>14,79; 37,66</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,93; 83,54</t>
+          <t>20,45; 84,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 12,62</t>
+          <t>-2,33; 13,5</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>23,47; 41,44</t>
+          <t>23,73; 41,04</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>35,45; 89,07</t>
+          <t>37,57; 91,21</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 8,92</t>
+          <t>-4,03; 9,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,41; 17,28</t>
+          <t>3,16; 16,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>21,75; 34,57</t>
+          <t>21,98; 34,17</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,97; 22,61</t>
+          <t>8,53; 22,54</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,26; 19,95</t>
+          <t>6,96; 19,78</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>22,04; 34,06</t>
+          <t>22,53; 33,65</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,21; 14,08</t>
+          <t>3,9; 14,2</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,65; 15,93</t>
+          <t>6,57; 16,05</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>23,88; 32,45</t>
+          <t>23,43; 32,41</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-10,92; 24,07</t>
+          <t>-9,38; 26,92</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,35; 45,26</t>
+          <t>6,99; 44,9</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>49,47; 95,64</t>
+          <t>49,08; 93,59</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>18,68; 62,72</t>
+          <t>19,56; 62,55</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>14,68; 57,2</t>
+          <t>16,01; 54,31</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>51,18; 97,7</t>
+          <t>51,78; 96,62</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>10,28; 37,94</t>
+          <t>9,39; 38,13</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>15,88; 42,75</t>
+          <t>15,21; 43,2</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>55,95; 87,72</t>
+          <t>54,13; 87,28</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 2,22</t>
+          <t>-2,86; 2,03</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,36; 13,85</t>
+          <t>8,04; 13,42</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>11,58; 28,84</t>
+          <t>10,85; 28,63</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,49; 5,34</t>
+          <t>0,48; 5,51</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>9,39; 14,55</t>
+          <t>9,66; 15,02</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>13,39; 29,28</t>
+          <t>13,93; 28,9</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 3,08</t>
+          <t>-0,56; 2,96</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>9,55; 13,37</t>
+          <t>9,46; 13,45</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>15,19; 28,32</t>
+          <t>16,89; 27,88</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-9,53; 7,56</t>
+          <t>-9,07; 7,24</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>26,76; 48,62</t>
+          <t>25,62; 47,2</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>41,52; 100,1</t>
+          <t>37,89; 98,61</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,48; 17,81</t>
+          <t>1,51; 18,37</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>28,91; 48,41</t>
+          <t>29,78; 50,37</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>42,45; 95,6</t>
+          <t>43,68; 93,71</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 10,44</t>
+          <t>-1,75; 9,95</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>30,05; 44,83</t>
+          <t>29,7; 45,4</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>52,04; 93,92</t>
+          <t>54,38; 92,12</t>
         </is>
       </c>
     </row>
